--- a/biology/Zoologie/Dicrogonatus_niger/Dicrogonatus_niger.xlsx
+++ b/biology/Zoologie/Dicrogonatus_niger/Dicrogonatus_niger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicrogonatus niger est une espèce d'acariens de la famille des Holothyridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dicrogonatus niger est endémique de l'île de Silhouette aux Seychelles[1]. Elle est présente sur la litière de feuilles de la forêt humide et ce à une altitude comprise entre 350 et 600 m[1]. Son aire de répartition se limite à 5 km2[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dicrogonatus niger est endémique de l'île de Silhouette aux Seychelles. Elle est présente sur la litière de feuilles de la forêt humide et ce à une altitude comprise entre 350 et 600 m. Son aire de répartition se limite à 5 km2.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'espèce Dicrogonatus niger a été décrite pour la première fois en 1906 par l'entomologiste et zoologiste tchèque Karel Thon (d) (1879-1906) sous le protonyme Holothyrus niger[2].
-Dicrognatus niger a pour synonymes[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'espèce Dicrogonatus niger a été décrite pour la première fois en 1906 par l'entomologiste et zoologiste tchèque Karel Thon (d) (1879-1906) sous le protonyme Holothyrus niger.
+Dicrognatus niger a pour synonymes :
 Dicrogonatus niger (Thon, 1906)
 Hammenius niger (Thon, 1906)
 Holothyrus niger Thon, 1906</t>
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Karel Thon, « Die äussere Morphologie und die Systematik der Holothyriden », Zoologische Jahrbücher. Abteilung für Systematik, Geographie und Biologie der Tiere, Allemagne, vol. 23,‎ 1906, p. 677-724 (ISSN 0323-7087, lire en ligne).</t>
         </is>
